--- a/fresno_to_cheshire_stations.xlsx
+++ b/fresno_to_cheshire_stations.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Distance from Fresno (miles)</t>
+          <t>Distance from Start (miles)</t>
         </is>
       </c>
     </row>
